--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1344,10 +1356,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1391,28 +1403,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1437,28 +1449,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2067,10 +2079,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2114,28 +2126,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2160,28 +2172,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2414,10 +2426,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2461,28 +2473,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2507,28 +2519,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2761,10 +2773,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2808,28 +2820,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2854,28 +2866,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3108,10 +3120,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="J103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3155,28 +3167,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3201,28 +3213,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3484,10 +3496,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3531,28 +3543,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3577,28 +3589,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3831,10 +3843,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="J128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3878,28 +3890,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3924,28 +3936,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4178,10 +4190,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4225,28 +4237,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4271,28 +4283,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4467,10 +4479,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="J150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4514,28 +4526,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4560,28 +4572,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4727,10 +4739,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
+      <c r="J159" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4774,28 +4786,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4820,28 +4832,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4987,10 +4999,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5034,28 +5046,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5080,28 +5092,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5276,10 +5288,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
+      <c r="J178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5323,28 +5335,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5369,28 +5381,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5478,10 +5490,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
+      <c r="J185" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="2" t="s">
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5525,28 +5537,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5571,28 +5583,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5651,10 +5663,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
+      <c r="J191" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -431,10 +479,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="4">
+      <c r="A12" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -524,28 +572,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="E14" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="F14" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="4">
+      <c r="I14" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -720,10 +768,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -767,28 +815,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="4">
+      <c r="A22" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="4">
+      <c r="D22" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G22" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="4">
+      <c r="H22" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -813,28 +861,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="4">
+      <c r="D24" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="4">
+      <c r="I24" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1038,10 +1086,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1085,28 +1133,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="4">
+      <c r="A33" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1131,28 +1179,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="4">
+      <c r="I35" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1356,10 +1404,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1403,28 +1451,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1449,28 +1497,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="4">
+      <c r="I46" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1703,10 +1751,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1750,28 +1798,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="4">
+      <c r="A56" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1796,28 +1844,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="D58" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="4">
+      <c r="I58" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2079,10 +2127,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2126,28 +2174,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C69" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="4">
+      <c r="D69" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="4">
+      <c r="G69" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="4">
+      <c r="H69" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2172,28 +2220,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="4">
+      <c r="D71" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="4">
+      <c r="I71" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2426,10 +2474,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2473,28 +2521,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="4">
+      <c r="A81" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="4">
+      <c r="D81" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2519,28 +2567,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="D83" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="4">
+      <c r="I83" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2773,10 +2821,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2820,28 +2868,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="4">
+      <c r="A93" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="4">
+      <c r="B93" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="4">
+      <c r="C93" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="4">
+      <c r="D93" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="4">
+      <c r="E93" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="4">
+      <c r="F93" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="4">
+      <c r="G93" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="4">
+      <c r="H93" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2866,28 +2914,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="4">
+      <c r="C95" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="4">
+      <c r="D95" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="4">
+      <c r="I95" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3120,10 +3168,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="J103" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="K103" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3167,28 +3215,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="4">
+      <c r="A105" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="4">
+      <c r="C105" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="4">
+      <c r="D105" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3213,28 +3261,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="4">
+      <c r="D107" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="4">
+      <c r="I107" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3496,10 +3544,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J116" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3543,28 +3591,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="4">
+      <c r="A118" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3589,28 +3637,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="4">
+      <c r="C120" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="4">
+      <c r="D120" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="4">
+      <c r="E120" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="4">
+      <c r="F120" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="4">
+      <c r="G120" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="4">
+      <c r="H120" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="4">
+      <c r="I120" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3843,10 +3891,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="4" t="s">
+      <c r="J128" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K128" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3890,28 +3938,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="4">
+      <c r="A130" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="4">
+      <c r="D130" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="4">
+      <c r="G130" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="4">
+      <c r="H130" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3936,28 +3984,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="4">
+      <c r="C132" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="4">
+      <c r="D132" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="4">
+      <c r="I132" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4190,10 +4238,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="J140" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="K140" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4237,28 +4285,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="4">
+      <c r="A142" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4283,28 +4331,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="4">
+      <c r="C144" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="4">
+      <c r="D144" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="4">
+      <c r="I144" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4479,10 +4527,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
+      <c r="J150" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4526,28 +4574,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="4">
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4572,28 +4620,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4739,10 +4787,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="4" t="s">
+      <c r="J159" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="K159" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4786,28 +4834,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="4">
+      <c r="A161" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4832,28 +4880,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="4">
+      <c r="C163" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="4">
+      <c r="D163" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="4">
+      <c r="G163" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="4">
+      <c r="H163" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="4">
+      <c r="I163" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4999,10 +5047,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
+      <c r="J168" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="4" t="s">
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5046,28 +5094,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5092,28 +5140,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5288,10 +5336,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="4" t="s">
+      <c r="J178" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="4" t="s">
+      <c r="K178" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5335,28 +5383,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="A180" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5381,28 +5429,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="4">
+      <c r="I182" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5490,10 +5538,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="4" t="s">
+      <c r="J185" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="4" t="s">
+      <c r="K185" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5537,28 +5585,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="4">
+      <c r="A187" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="4">
+      <c r="C187" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D187" t="s" s="4">
+      <c r="D187" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5583,28 +5631,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="4">
+      <c r="C189" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="4">
+      <c r="D189" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="4">
+      <c r="I189" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5663,10 +5711,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="4" t="s">
+      <c r="J191" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="4" t="s">
+      <c r="K191" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -479,10 +497,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -526,28 +544,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -572,28 +590,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="12">
+      <c r="B14" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="F14" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="12">
+      <c r="H14" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="12">
+      <c r="I14" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -768,10 +786,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -815,28 +833,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="12">
+      <c r="A22" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C22" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G22" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -861,28 +879,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="12">
+      <c r="C24" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="12">
+      <c r="D24" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="12">
+      <c r="I24" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1086,10 +1104,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1133,28 +1151,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="12">
+      <c r="A33" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1179,28 +1197,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="12">
+      <c r="I35" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1404,10 +1422,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1451,28 +1469,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="12">
+      <c r="A44" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1497,28 +1515,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1751,10 +1769,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="12" t="s">
+      <c r="J54" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="12" t="s">
+      <c r="K54" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1798,28 +1816,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="12">
+      <c r="A56" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1844,28 +1862,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="12">
+      <c r="C58" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="12">
+      <c r="D58" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="12">
+      <c r="I58" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2127,10 +2145,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="12" t="s">
+      <c r="J67" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="K67" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2174,28 +2192,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="12">
+      <c r="A69" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="12">
+      <c r="C69" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="12">
+      <c r="D69" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2220,28 +2238,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="12">
+      <c r="C71" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="12">
+      <c r="D71" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="12">
+      <c r="I71" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2474,10 +2492,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="12" t="s">
+      <c r="J79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="12" t="s">
+      <c r="K79" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2521,28 +2539,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="12">
+      <c r="A81" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="12">
+      <c r="C81" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="12">
+      <c r="D81" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2567,28 +2585,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="12">
+      <c r="C83" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="12">
+      <c r="D83" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="12">
+      <c r="I83" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2821,10 +2839,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="J91" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="12" t="s">
+      <c r="K91" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2868,28 +2886,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="12">
+      <c r="A93" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="12">
+      <c r="B93" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="12">
+      <c r="C93" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="12">
+      <c r="D93" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="12">
+      <c r="E93" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="12">
+      <c r="F93" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="12">
+      <c r="G93" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="12">
+      <c r="H93" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2914,28 +2932,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="12">
+      <c r="C95" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="12">
+      <c r="D95" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="12">
+      <c r="I95" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3168,10 +3186,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="12" t="s">
+      <c r="J103" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="12" t="s">
+      <c r="K103" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3215,28 +3233,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="12">
+      <c r="A105" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="12">
+      <c r="C105" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="12">
+      <c r="D105" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3261,28 +3279,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="12">
+      <c r="C107" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="12">
+      <c r="D107" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="12">
+      <c r="I107" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3544,10 +3562,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="12" t="s">
+      <c r="J116" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="12" t="s">
+      <c r="K116" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3591,28 +3609,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="12">
+      <c r="A118" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3637,28 +3655,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="12">
+      <c r="B120" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="12">
+      <c r="C120" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="12">
+      <c r="D120" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="12">
+      <c r="E120" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="12">
+      <c r="F120" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="12">
+      <c r="G120" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="12">
+      <c r="H120" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="12">
+      <c r="I120" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3891,10 +3909,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="12" t="s">
+      <c r="J128" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="12" t="s">
+      <c r="K128" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3938,28 +3956,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="12">
+      <c r="A130" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="12">
+      <c r="C130" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="12">
+      <c r="D130" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="12">
+      <c r="E130" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="12">
+      <c r="F130" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="12">
+      <c r="H130" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3984,28 +4002,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="12">
+      <c r="C132" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="12">
+      <c r="D132" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="12">
+      <c r="I132" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4238,10 +4256,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="12" t="s">
+      <c r="J140" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="12" t="s">
+      <c r="K140" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4285,28 +4303,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="12">
+      <c r="A142" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4331,28 +4349,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="12">
+      <c r="C144" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="D144" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="12">
+      <c r="I144" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4527,10 +4545,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
+      <c r="J150" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="12" t="s">
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4574,28 +4592,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
+      <c r="C152" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="12">
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4620,28 +4638,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4787,10 +4805,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="12" t="s">
+      <c r="J159" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="12" t="s">
+      <c r="K159" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4834,28 +4852,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="12">
+      <c r="A161" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="12">
+      <c r="D161" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4880,28 +4898,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="12">
+      <c r="C163" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="12">
+      <c r="D163" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="12">
+      <c r="E163" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="12">
+      <c r="F163" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="12">
+      <c r="G163" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="12">
+      <c r="H163" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="12">
+      <c r="I163" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5047,10 +5065,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
+      <c r="J168" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="12" t="s">
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5094,28 +5112,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5140,28 +5158,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5336,10 +5354,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="12" t="s">
+      <c r="J178" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="12" t="s">
+      <c r="K178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5383,28 +5401,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="12">
+      <c r="A180" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5429,28 +5447,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="12">
+      <c r="I182" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5538,10 +5556,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="12" t="s">
+      <c r="J185" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="12" t="s">
+      <c r="K185" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5585,28 +5603,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="12">
+      <c r="A187" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="12">
+      <c r="C187" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D187" t="s" s="12">
+      <c r="D187" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5631,28 +5649,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="12">
+      <c r="C189" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="12">
+      <c r="D189" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="12">
+      <c r="I189" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5711,10 +5729,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="12" t="s">
+      <c r="J191" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="12" t="s">
+      <c r="K191" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
